--- a/docs/pm/面向监控的服务平台测试阶段-任务分工20190103.xlsx
+++ b/docs/pm/面向监控的服务平台测试阶段-任务分工20190103.xlsx
@@ -277,10 +277,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -326,14 +326,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,9 +354,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,16 +416,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +425,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,23 +453,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,43 +469,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="52">
     <fill>
@@ -617,67 +617,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,104 +783,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -793,12 +793,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="medium">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -813,7 +828,7 @@
         <color indexed="8"/>
       </right>
       <top style="medium">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -826,13 +841,13 @@
         <color indexed="8"/>
       </right>
       <top style="medium">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -854,6 +869,21 @@
       </top>
       <bottom style="thin">
         <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,6 +926,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -903,7 +948,22 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -916,7 +976,7 @@
         <color indexed="8"/>
       </right>
       <top style="medium">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -926,10 +986,10 @@
         <color indexed="8"/>
       </left>
       <right style="medium">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -939,7 +999,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -951,11 +1011,28 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -966,6 +1043,45 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,17 +1110,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1023,192 +1135,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="49" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="47" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1221,61 +1298,64 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,62 +1364,65 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1759,8 +1842,8 @@
   <sheetPr/>
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25" customHeight="1"/>
@@ -1781,966 +1864,938 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="38">
-        <v>43470</v>
-      </c>
-      <c r="G2" s="38">
-        <v>43470</v>
-      </c>
-      <c r="H2" s="38">
-        <v>43470</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="39">
+        <v>43472</v>
+      </c>
+      <c r="G2" s="39">
+        <v>43472</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:11">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="38">
-        <v>43470</v>
-      </c>
-      <c r="G3" s="38">
-        <v>43470</v>
-      </c>
-      <c r="H3" s="38">
-        <v>43470</v>
-      </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="39">
+        <v>43472</v>
+      </c>
+      <c r="G3" s="39">
+        <v>43472</v>
+      </c>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:11">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="38">
-        <v>43470</v>
-      </c>
-      <c r="G4" s="38">
-        <v>43470</v>
-      </c>
-      <c r="H4" s="38">
-        <v>43470</v>
-      </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="39">
+        <v>43472</v>
+      </c>
+      <c r="G4" s="39">
+        <v>43472</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:11">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="38">
-        <v>43470</v>
-      </c>
-      <c r="G5" s="38">
-        <v>43470</v>
-      </c>
-      <c r="H5" s="38">
-        <v>43470</v>
-      </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="39">
+        <v>43472</v>
+      </c>
+      <c r="G5" s="39">
+        <v>43472</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:11">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="38">
-        <v>43470</v>
-      </c>
-      <c r="G6" s="38">
-        <v>43470</v>
-      </c>
-      <c r="H6" s="38">
-        <v>43470</v>
-      </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42"/>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="39">
+        <v>43472</v>
+      </c>
+      <c r="G6" s="39">
+        <v>43472</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:11">
-      <c r="A7" s="9"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="38">
-        <v>43470</v>
-      </c>
-      <c r="G7" s="38">
-        <v>43470</v>
-      </c>
-      <c r="H7" s="38">
-        <v>43470</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="39">
+        <v>43472</v>
+      </c>
+      <c r="G7" s="39">
+        <v>43472</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:11">
-      <c r="A8" s="9"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="38">
-        <v>43470</v>
-      </c>
-      <c r="G8" s="38">
-        <v>43470</v>
-      </c>
-      <c r="H8" s="38">
-        <v>43470</v>
-      </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
+      <c r="E8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="39">
+        <v>43472</v>
+      </c>
+      <c r="G8" s="39">
+        <v>43472</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:11">
-      <c r="A9" s="9"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="38">
-        <v>43470</v>
-      </c>
-      <c r="G9" s="38">
-        <v>43470</v>
-      </c>
-      <c r="H9" s="38">
-        <v>43470</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
+      <c r="E9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="39">
+        <v>43472</v>
+      </c>
+      <c r="G9" s="39">
+        <v>43472</v>
+      </c>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:11">
-      <c r="A10" s="9"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="38">
-        <v>43470</v>
-      </c>
-      <c r="G10" s="38">
-        <v>43470</v>
-      </c>
-      <c r="H10" s="38">
-        <v>43470</v>
-      </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
+      <c r="E10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="39">
+        <v>43472</v>
+      </c>
+      <c r="G10" s="39">
+        <v>43472</v>
+      </c>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="43"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="38">
-        <v>43470</v>
-      </c>
-      <c r="G11" s="38">
-        <v>43470</v>
-      </c>
-      <c r="H11" s="38">
-        <v>43470</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="E11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="39">
+        <v>43472</v>
+      </c>
+      <c r="G11" s="39">
+        <v>43472</v>
+      </c>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:11">
-      <c r="A12" s="9"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="38">
-        <v>43470</v>
-      </c>
-      <c r="G12" s="38">
-        <v>43470</v>
-      </c>
-      <c r="H12" s="38">
-        <v>43470</v>
-      </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42"/>
+      <c r="E12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="39">
+        <v>43472</v>
+      </c>
+      <c r="G12" s="39">
+        <v>43472</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:11">
-      <c r="A13" s="9"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="38">
-        <v>43470</v>
-      </c>
-      <c r="G13" s="38">
-        <v>43470</v>
-      </c>
-      <c r="H13" s="38">
-        <v>43470</v>
-      </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
+      <c r="E13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="39">
+        <v>43472</v>
+      </c>
+      <c r="G13" s="39">
+        <v>43472</v>
+      </c>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:11">
-      <c r="A14" s="9"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
+      <c r="E14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:11">
-      <c r="A15" s="9"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="38">
-        <v>43470</v>
-      </c>
-      <c r="G15" s="38">
-        <v>43470</v>
-      </c>
-      <c r="H15" s="38">
-        <v>43470</v>
-      </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="42"/>
+      <c r="E15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="39">
+        <v>43472</v>
+      </c>
+      <c r="G15" s="39">
+        <v>43472</v>
+      </c>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:11">
-      <c r="A16" s="9"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="7" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:11">
-      <c r="A17" s="9"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:11">
-      <c r="A18" s="9"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:11">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="38">
-        <v>43470</v>
-      </c>
-      <c r="G19" s="38">
-        <v>43470</v>
-      </c>
-      <c r="H19" s="38">
-        <v>43470</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
+      <c r="E19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="39">
+        <v>43472</v>
+      </c>
+      <c r="G19" s="39">
+        <v>43472</v>
+      </c>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:11">
-      <c r="A20" s="22"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="43"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:11">
-      <c r="A21" s="22"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="42"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:11">
-      <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:11">
-      <c r="A23" s="22"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="43"/>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:11">
-      <c r="A24" s="22"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:11">
-      <c r="A25" s="22"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:11">
-      <c r="A26" s="22"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="43"/>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:11">
-      <c r="A27" s="22"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="7" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="43"/>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:11">
-      <c r="A28" s="22"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="7" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="43"/>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:11">
-      <c r="A29" s="22"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="42"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="43"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:11">
-      <c r="A30" s="22"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="42"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="43"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:11">
-      <c r="A31" s="22"/>
-      <c r="B31" s="26" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="42"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="43"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:11">
-      <c r="A32" s="22"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="7" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="42"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="43"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:11">
-      <c r="A33" s="22"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="7" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="42"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="43"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:11">
-      <c r="A34" s="22"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="7" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="42"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="43"/>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:11">
-      <c r="A35" s="22"/>
-      <c r="B35" s="27" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="42"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="43"/>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:11">
-      <c r="A36" s="22"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="7" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="42"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="43"/>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:11">
-      <c r="A37" s="22"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="7" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="42"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="43"/>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:11">
-      <c r="A38" s="22"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="7" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="42"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="43"/>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:11">
-      <c r="A39" s="22"/>
-      <c r="B39" s="28" t="s">
+      <c r="A39" s="23"/>
+      <c r="B39" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="42"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="43"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:11">
-      <c r="A40" s="22"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="7" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="42"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="43"/>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:11">
-      <c r="A41" s="22"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="7" t="s">
+      <c r="A41" s="23"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="42"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="43"/>
     </row>
     <row r="42" ht="30" customHeight="1" spans="1:11">
-      <c r="A42" s="22"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="7" t="s">
+      <c r="A42" s="23"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="42"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="43"/>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:11">
-      <c r="A43" s="22"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="23"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="42"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="43"/>
     </row>
     <row r="44" ht="30" customHeight="1" spans="1:11">
-      <c r="A44" s="22"/>
-      <c r="B44" s="29" t="s">
+      <c r="A44" s="23"/>
+      <c r="B44" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="43"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="44"/>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:11">
-      <c r="A45" s="22"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="7" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="43"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="44"/>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:11">
-      <c r="A46" s="22"/>
-      <c r="B46" s="30" t="s">
+      <c r="A46" s="23"/>
+      <c r="B46" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="43"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="44"/>
     </row>
     <row r="47" ht="32" customHeight="1" spans="1:11">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32" t="s">
+      <c r="A47" s="32"/>
+      <c r="B47" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="14">
